--- a/raw-data/winter-2019-final.xlsx
+++ b/raw-data/winter-2019-final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="M:\Team Drives\MACO Scheduling\Winter 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpratt\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="MACO" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="253">
   <si>
     <t>Schedule of Classes - Winter 2019</t>
   </si>
@@ -795,6 +795,12 @@
   </si>
   <si>
     <t>Hudson</t>
+  </si>
+  <si>
+    <t>Sajida </t>
+  </si>
+  <si>
+    <t>Faiyaz</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -838,6 +844,12 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Reference Sans Serif"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1003,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1143,6 +1155,24 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1185,24 +1215,7 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1485,8 +1498,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B181" workbookViewId="0">
-      <selection activeCell="B194" sqref="A194:XFD197"/>
+    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
+      <selection activeCell="U59" sqref="U59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1510,31 +1523,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="20.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="50" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
-      <c r="L1" s="51"/>
-      <c r="M1" s="51"/>
-      <c r="N1" s="51"/>
-      <c r="O1" s="51"/>
-      <c r="P1" s="51"/>
-      <c r="Q1" s="51"/>
-      <c r="R1" s="51"/>
-      <c r="S1" s="51"/>
-      <c r="T1" s="51"/>
-      <c r="U1" s="51"/>
-      <c r="V1" s="51"/>
-      <c r="W1" s="52"/>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+      <c r="G1" s="57"/>
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57"/>
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="57"/>
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="57"/>
+      <c r="T1" s="57"/>
+      <c r="U1" s="57"/>
+      <c r="V1" s="57"/>
+      <c r="W1" s="58"/>
     </row>
     <row r="2" spans="1:23" s="5" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -4719,11 +4732,11 @@
       <c r="S57" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T57" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U57" s="18" t="s">
-        <v>75</v>
+      <c r="T57" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U57" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V57" s="18" t="s">
         <v>32</v>
@@ -4772,11 +4785,11 @@
       <c r="S58" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T58" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U58" s="18" t="s">
-        <v>75</v>
+      <c r="T58" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U58" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V58" s="18" t="s">
         <v>32</v>
@@ -4825,11 +4838,11 @@
       <c r="S59" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T59" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U59" s="18" t="s">
-        <v>75</v>
+      <c r="T59" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U59" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V59" s="18" t="s">
         <v>32</v>
@@ -4882,11 +4895,11 @@
       <c r="S60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T60" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U60" s="18" t="s">
-        <v>75</v>
+      <c r="T60" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U60" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V60" s="18" t="s">
         <v>32</v>
@@ -4939,11 +4952,11 @@
       <c r="S61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T61" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="U61" s="18" t="s">
-        <v>75</v>
+      <c r="T61" s="69" t="s">
+        <v>251</v>
+      </c>
+      <c r="U61" s="69" t="s">
+        <v>252</v>
       </c>
       <c r="V61" s="18" t="s">
         <v>32</v>
@@ -11880,7 +11893,7 @@
         <v>184</v>
       </c>
       <c r="R183" s="25" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="S183" s="25" t="s">
         <v>186</v>
@@ -12241,19 +12254,19 @@
       </c>
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B190" s="55" t="s">
+      <c r="B190" s="61" t="s">
         <v>209</v>
       </c>
-      <c r="C190" s="58" t="s">
+      <c r="C190" s="64" t="s">
         <v>210</v>
       </c>
-      <c r="D190" s="60">
-        <v>1</v>
-      </c>
-      <c r="E190" s="62">
-        <v>1</v>
-      </c>
-      <c r="F190" s="49">
+      <c r="D190" s="66">
+        <v>1</v>
+      </c>
+      <c r="E190" s="68">
+        <v>1</v>
+      </c>
+      <c r="F190" s="55">
         <v>1</v>
       </c>
       <c r="G190" s="9">
@@ -12303,12 +12316,12 @@
       </c>
     </row>
     <row r="191" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A191" s="53"/>
-      <c r="B191" s="56"/>
-      <c r="C191" s="59"/>
-      <c r="D191" s="61"/>
-      <c r="E191" s="62"/>
-      <c r="F191" s="49"/>
+      <c r="A191" s="59"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="65"/>
+      <c r="D191" s="67"/>
+      <c r="E191" s="68"/>
+      <c r="F191" s="55"/>
       <c r="G191" s="9">
         <v>14</v>
       </c>
@@ -12356,10 +12369,10 @@
       </c>
     </row>
     <row r="192" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A192" s="54"/>
-      <c r="B192" s="56"/>
-      <c r="C192" s="59"/>
-      <c r="D192" s="61"/>
+      <c r="A192" s="60"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="65"/>
+      <c r="D192" s="67"/>
       <c r="E192" s="26">
         <v>401</v>
       </c>
@@ -12413,9 +12426,9 @@
       </c>
     </row>
     <row r="193" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B193" s="57"/>
-      <c r="C193" s="59"/>
-      <c r="D193" s="61"/>
+      <c r="B193" s="63"/>
+      <c r="C193" s="65"/>
+      <c r="D193" s="67"/>
       <c r="E193" s="26">
         <v>501</v>
       </c>
@@ -13260,19 +13273,19 @@
       </c>
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="B208" s="63" t="s">
+      <c r="B208" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C208" s="65" t="s">
+      <c r="C208" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D208" s="65">
+      <c r="D208" s="51">
         <v>6</v>
       </c>
-      <c r="E208" s="67">
+      <c r="E208" s="53">
         <v>6</v>
       </c>
-      <c r="F208" s="65">
+      <c r="F208" s="51">
         <v>1</v>
       </c>
       <c r="G208" s="6">
@@ -13322,11 +13335,11 @@
       </c>
     </row>
     <row r="209" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B209" s="64"/>
-      <c r="C209" s="66"/>
-      <c r="D209" s="66"/>
-      <c r="E209" s="68"/>
-      <c r="F209" s="66"/>
+      <c r="B209" s="50"/>
+      <c r="C209" s="52"/>
+      <c r="D209" s="52"/>
+      <c r="E209" s="54"/>
+      <c r="F209" s="52"/>
       <c r="G209" s="40">
         <v>40</v>
       </c>
@@ -13374,19 +13387,19 @@
       </c>
     </row>
     <row r="210" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B210" s="63" t="s">
+      <c r="B210" s="49" t="s">
         <v>216</v>
       </c>
-      <c r="C210" s="65" t="s">
+      <c r="C210" s="51" t="s">
         <v>217</v>
       </c>
-      <c r="D210" s="65">
+      <c r="D210" s="51">
         <v>20</v>
       </c>
-      <c r="E210" s="67">
+      <c r="E210" s="53">
         <v>20</v>
       </c>
-      <c r="F210" s="65">
+      <c r="F210" s="51">
         <v>1</v>
       </c>
       <c r="G210" s="6">
@@ -13436,11 +13449,11 @@
       </c>
     </row>
     <row r="211" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B211" s="64"/>
-      <c r="C211" s="66"/>
-      <c r="D211" s="66"/>
-      <c r="E211" s="68"/>
-      <c r="F211" s="66"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="52"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="54"/>
+      <c r="F211" s="52"/>
       <c r="G211" s="40">
         <v>40</v>
       </c>
@@ -13488,19 +13501,19 @@
       </c>
     </row>
     <row r="212" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B212" s="63" t="s">
+      <c r="B212" s="49" t="s">
         <v>232</v>
       </c>
-      <c r="C212" s="65" t="s">
+      <c r="C212" s="51" t="s">
         <v>233</v>
       </c>
-      <c r="D212" s="65">
-        <v>1</v>
-      </c>
-      <c r="E212" s="67">
-        <v>1</v>
-      </c>
-      <c r="F212" s="65">
+      <c r="D212" s="51">
+        <v>1</v>
+      </c>
+      <c r="E212" s="53">
+        <v>1</v>
+      </c>
+      <c r="F212" s="51">
         <v>1</v>
       </c>
       <c r="G212" s="6">
@@ -13550,11 +13563,11 @@
       </c>
     </row>
     <row r="213" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B213" s="64"/>
-      <c r="C213" s="66"/>
-      <c r="D213" s="66"/>
-      <c r="E213" s="68"/>
-      <c r="F213" s="66"/>
+      <c r="B213" s="50"/>
+      <c r="C213" s="52"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="54"/>
+      <c r="F213" s="52"/>
       <c r="G213" s="40">
         <v>40</v>
       </c>
@@ -13602,19 +13615,19 @@
       </c>
     </row>
     <row r="214" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B214" s="63" t="s">
+      <c r="B214" s="49" t="s">
         <v>234</v>
       </c>
-      <c r="C214" s="65" t="s">
+      <c r="C214" s="51" t="s">
         <v>235</v>
       </c>
-      <c r="D214" s="65">
+      <c r="D214" s="51">
         <v>11</v>
       </c>
-      <c r="E214" s="67">
+      <c r="E214" s="53">
         <v>11</v>
       </c>
-      <c r="F214" s="65">
+      <c r="F214" s="51">
         <v>1</v>
       </c>
       <c r="G214" s="6">
@@ -13664,11 +13677,11 @@
       </c>
     </row>
     <row r="215" spans="2:23" x14ac:dyDescent="0.25">
-      <c r="B215" s="64"/>
-      <c r="C215" s="66"/>
-      <c r="D215" s="66"/>
-      <c r="E215" s="68"/>
-      <c r="F215" s="66"/>
+      <c r="B215" s="50"/>
+      <c r="C215" s="52"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="54"/>
+      <c r="F215" s="52"/>
       <c r="G215" s="40">
         <v>40</v>
       </c>
@@ -13717,26 +13730,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B214:B215"/>
-    <mergeCell ref="C214:C215"/>
-    <mergeCell ref="D214:D215"/>
-    <mergeCell ref="E214:E215"/>
-    <mergeCell ref="F214:F215"/>
-    <mergeCell ref="B210:B211"/>
-    <mergeCell ref="B212:B213"/>
-    <mergeCell ref="C210:C211"/>
-    <mergeCell ref="D210:D211"/>
-    <mergeCell ref="E210:E211"/>
-    <mergeCell ref="F210:F211"/>
-    <mergeCell ref="C212:C213"/>
-    <mergeCell ref="D212:D213"/>
-    <mergeCell ref="E212:E213"/>
-    <mergeCell ref="F212:F213"/>
-    <mergeCell ref="B208:B209"/>
-    <mergeCell ref="C208:C209"/>
-    <mergeCell ref="D208:D209"/>
-    <mergeCell ref="E208:E209"/>
-    <mergeCell ref="F208:F209"/>
     <mergeCell ref="F190:F191"/>
     <mergeCell ref="A1:W1"/>
     <mergeCell ref="A191:A192"/>
@@ -13744,6 +13737,26 @@
     <mergeCell ref="C190:C193"/>
     <mergeCell ref="D190:D193"/>
     <mergeCell ref="E190:E191"/>
+    <mergeCell ref="B208:B209"/>
+    <mergeCell ref="C208:C209"/>
+    <mergeCell ref="D208:D209"/>
+    <mergeCell ref="E208:E209"/>
+    <mergeCell ref="F208:F209"/>
+    <mergeCell ref="F210:F211"/>
+    <mergeCell ref="C212:C213"/>
+    <mergeCell ref="D212:D213"/>
+    <mergeCell ref="E212:E213"/>
+    <mergeCell ref="F212:F213"/>
+    <mergeCell ref="B210:B211"/>
+    <mergeCell ref="B212:B213"/>
+    <mergeCell ref="C210:C211"/>
+    <mergeCell ref="D210:D211"/>
+    <mergeCell ref="E210:E211"/>
+    <mergeCell ref="B214:B215"/>
+    <mergeCell ref="C214:C215"/>
+    <mergeCell ref="D214:D215"/>
+    <mergeCell ref="E214:E215"/>
+    <mergeCell ref="F214:F215"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/raw-data/winter-2019-final.xlsx
+++ b/raw-data/winter-2019-final.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpratt\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Team Drives\MACO Scheduling\Winter 2019\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16350" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6825"/>
   </bookViews>
   <sheets>
     <sheet name="MACO" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1807" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1809" uniqueCount="258">
   <si>
     <t>Schedule of Classes - Winter 2019</t>
   </si>
@@ -221,9 +221,6 @@
     <t>D1X3</t>
   </si>
   <si>
-    <t>EB1102</t>
-  </si>
-  <si>
     <t>Paul</t>
   </si>
   <si>
@@ -356,9 +353,6 @@
     <t>Info Technology and Society</t>
   </si>
   <si>
-    <t>EA1054</t>
-  </si>
-  <si>
     <t>Alan</t>
   </si>
   <si>
@@ -437,9 +431,6 @@
     <t>Database II - Advanced Databases</t>
   </si>
   <si>
-    <t>EA2052</t>
-  </si>
-  <si>
     <t>COMP4543</t>
   </si>
   <si>
@@ -458,9 +449,6 @@
     <t>Introduction to Geometry</t>
   </si>
   <si>
-    <t>EA2027</t>
-  </si>
-  <si>
     <t>Peter</t>
   </si>
   <si>
@@ -545,9 +533,6 @@
     <t>Discrete Mathematics</t>
   </si>
   <si>
-    <t>B219</t>
-  </si>
-  <si>
     <t>B202</t>
   </si>
   <si>
@@ -629,9 +614,6 @@
     <t>Statistics for Env. Sci</t>
   </si>
   <si>
-    <t>E147</t>
-  </si>
-  <si>
     <t>Ashok</t>
   </si>
   <si>
@@ -797,10 +779,43 @@
     <t>Hudson</t>
   </si>
   <si>
-    <t>Sajida </t>
-  </si>
-  <si>
-    <t>Faiyaz</t>
+    <t>W231</t>
+  </si>
+  <si>
+    <t>EA2057</t>
+  </si>
+  <si>
+    <t>T143</t>
+  </si>
+  <si>
+    <t>O222</t>
+  </si>
+  <si>
+    <t>EC1145</t>
+  </si>
+  <si>
+    <t>EC1150</t>
+  </si>
+  <si>
+    <t>E103</t>
+  </si>
+  <si>
+    <t>EA1068</t>
+  </si>
+  <si>
+    <t>Q306</t>
+  </si>
+  <si>
+    <t>EB1018</t>
+  </si>
+  <si>
+    <t>Y214</t>
+  </si>
+  <si>
+    <t>Y-WING</t>
+  </si>
+  <si>
+    <t>T-WING</t>
   </si>
 </sst>
 </file>
@@ -810,7 +825,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,12 +859,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="MS Reference Sans Serif"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1015,7 +1024,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1215,7 +1224,6 @@
     <xf numFmtId="164" fontId="4" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1498,8 +1506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W215"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E43" workbookViewId="0">
-      <selection activeCell="U59" sqref="U59"/>
+    <sheetView tabSelected="1" topLeftCell="A175" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B207" sqref="B207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1673,10 +1681,10 @@
         <v>31</v>
       </c>
       <c r="T3" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U3" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V3" s="18" t="s">
         <v>32</v>
@@ -1726,10 +1734,10 @@
         <v>31</v>
       </c>
       <c r="T4" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U4" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V4" s="18" t="s">
         <v>32</v>
@@ -1783,10 +1791,10 @@
         <v>37</v>
       </c>
       <c r="T5" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U5" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V5" s="18" t="s">
         <v>32</v>
@@ -1840,10 +1848,10 @@
         <v>37</v>
       </c>
       <c r="T6" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U6" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V6" s="18" t="s">
         <v>32</v>
@@ -1899,10 +1907,10 @@
         <v>31</v>
       </c>
       <c r="T7" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U7" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="V7" s="18" t="s">
         <v>32</v>
@@ -1952,10 +1960,10 @@
         <v>31</v>
       </c>
       <c r="T8" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U8" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="V8" s="18" t="s">
         <v>32</v>
@@ -2009,10 +2017,10 @@
         <v>37</v>
       </c>
       <c r="T9" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U9" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="V9" s="18" t="s">
         <v>32</v>
@@ -2066,10 +2074,10 @@
         <v>37</v>
       </c>
       <c r="T10" s="18" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="U10" s="18" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="V10" s="18" t="s">
         <v>32</v>
@@ -2125,10 +2133,10 @@
         <v>31</v>
       </c>
       <c r="T11" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U11" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V11" s="18" t="s">
         <v>32</v>
@@ -2178,10 +2186,10 @@
         <v>31</v>
       </c>
       <c r="T12" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U12" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V12" s="18" t="s">
         <v>32</v>
@@ -2235,10 +2243,10 @@
         <v>37</v>
       </c>
       <c r="T13" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U13" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V13" s="18" t="s">
         <v>32</v>
@@ -2292,10 +2300,10 @@
         <v>37</v>
       </c>
       <c r="T14" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U14" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V14" s="18" t="s">
         <v>32</v>
@@ -2402,7 +2410,7 @@
         <v>29</v>
       </c>
       <c r="R16" s="25" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="S16" s="25" t="s">
         <v>37</v>
@@ -2471,10 +2479,10 @@
         <v>31</v>
       </c>
       <c r="T17" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U17" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V17" s="18" t="s">
         <v>32</v>
@@ -2524,10 +2532,10 @@
         <v>31</v>
       </c>
       <c r="T18" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U18" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V18" s="18" t="s">
         <v>32</v>
@@ -2581,10 +2589,10 @@
         <v>31</v>
       </c>
       <c r="T19" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U19" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V19" s="18" t="s">
         <v>32</v>
@@ -2638,10 +2646,10 @@
         <v>31</v>
       </c>
       <c r="T20" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U20" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V20" s="18" t="s">
         <v>32</v>
@@ -2695,10 +2703,10 @@
         <v>31</v>
       </c>
       <c r="T21" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U21" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V21" s="18" t="s">
         <v>32</v>
@@ -2752,10 +2760,10 @@
         <v>31</v>
       </c>
       <c r="T22" s="18" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U22" s="18" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="V22" s="18" t="s">
         <v>32</v>
@@ -2815,10 +2823,10 @@
         <v>31</v>
       </c>
       <c r="T23" s="25" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U23" s="25" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V23" s="25" t="s">
         <v>32</v>
@@ -2868,10 +2876,10 @@
         <v>31</v>
       </c>
       <c r="T24" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U24" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V24" s="25" t="s">
         <v>32</v>
@@ -2925,10 +2933,10 @@
         <v>31</v>
       </c>
       <c r="T25" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U25" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V25" s="25" t="s">
         <v>32</v>
@@ -2982,10 +2990,10 @@
         <v>31</v>
       </c>
       <c r="T26" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U26" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V26" s="25" t="s">
         <v>32</v>
@@ -3039,10 +3047,10 @@
         <v>31</v>
       </c>
       <c r="T27" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U27" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V27" s="25" t="s">
         <v>32</v>
@@ -3096,10 +3104,10 @@
         <v>31</v>
       </c>
       <c r="T28" s="48" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="U28" s="48" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="V28" s="25" t="s">
         <v>32</v>
@@ -3155,10 +3163,10 @@
         <v>31</v>
       </c>
       <c r="T29" s="25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U29" s="25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V29" s="25" t="s">
         <v>32</v>
@@ -3208,10 +3216,10 @@
         <v>31</v>
       </c>
       <c r="T30" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U30" s="48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V30" s="25" t="s">
         <v>32</v>
@@ -3265,10 +3273,10 @@
         <v>31</v>
       </c>
       <c r="T31" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U31" s="48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V31" s="25" t="s">
         <v>32</v>
@@ -3322,10 +3330,10 @@
         <v>31</v>
       </c>
       <c r="T32" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U32" s="48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V32" s="25" t="s">
         <v>32</v>
@@ -3379,10 +3387,10 @@
         <v>31</v>
       </c>
       <c r="T33" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U33" s="48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V33" s="25" t="s">
         <v>32</v>
@@ -3436,10 +3444,10 @@
         <v>31</v>
       </c>
       <c r="T34" s="48" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U34" s="48" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V34" s="25" t="s">
         <v>32</v>
@@ -3499,10 +3507,10 @@
         <v>37</v>
       </c>
       <c r="T35" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U35" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V35" s="18" t="s">
         <v>32</v>
@@ -3552,10 +3560,10 @@
         <v>37</v>
       </c>
       <c r="T36" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U36" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V36" s="18" t="s">
         <v>32</v>
@@ -3609,10 +3617,10 @@
         <v>37</v>
       </c>
       <c r="T37" s="18" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="U37" s="18" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="V37" s="18" t="s">
         <v>32</v>
@@ -3666,16 +3674,16 @@
         <v>29</v>
       </c>
       <c r="R38" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T38" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S38" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T38" s="25" t="s">
+      <c r="U38" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U38" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V38" s="25" t="s">
         <v>32</v>
@@ -3719,16 +3727,16 @@
         <v>29</v>
       </c>
       <c r="R39" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T39" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S39" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T39" s="25" t="s">
+      <c r="U39" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U39" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V39" s="25" t="s">
         <v>32</v>
@@ -3772,16 +3780,16 @@
         <v>29</v>
       </c>
       <c r="R40" s="25" t="s">
+        <v>247</v>
+      </c>
+      <c r="S40" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T40" s="25" t="s">
         <v>59</v>
       </c>
-      <c r="S40" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T40" s="25" t="s">
+      <c r="U40" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U40" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V40" s="25" t="s">
         <v>32</v>
@@ -3814,7 +3822,7 @@
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
       <c r="M41" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N41" s="25" t="s">
         <v>28</v>
@@ -3829,16 +3837,16 @@
         <v>35</v>
       </c>
       <c r="R41" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S41" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T41" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U41" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U41" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V41" s="25" t="s">
         <v>32</v>
@@ -3867,7 +3875,7 @@
       <c r="K42" s="25"/>
       <c r="L42" s="25"/>
       <c r="M42" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N42" s="25" t="s">
         <v>33</v>
@@ -3882,16 +3890,16 @@
         <v>35</v>
       </c>
       <c r="R42" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S42" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T42" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U42" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U42" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V42" s="25" t="s">
         <v>32</v>
@@ -3924,7 +3932,7 @@
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
       <c r="M43" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N43" s="25" t="s">
         <v>28</v>
@@ -3939,16 +3947,16 @@
         <v>35</v>
       </c>
       <c r="R43" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S43" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T43" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U43" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U43" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V43" s="25" t="s">
         <v>32</v>
@@ -3977,7 +3985,7 @@
       <c r="K44" s="25"/>
       <c r="L44" s="25"/>
       <c r="M44" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N44" s="25" t="s">
         <v>33</v>
@@ -3992,16 +4000,16 @@
         <v>35</v>
       </c>
       <c r="R44" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S44" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T44" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U44" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U44" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V44" s="25" t="s">
         <v>32</v>
@@ -4034,7 +4042,7 @@
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
       <c r="M45" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N45" s="25" t="s">
         <v>28</v>
@@ -4049,16 +4057,16 @@
         <v>35</v>
       </c>
       <c r="R45" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S45" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T45" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U45" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U45" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V45" s="25" t="s">
         <v>32</v>
@@ -4087,7 +4095,7 @@
       <c r="K46" s="25"/>
       <c r="L46" s="25"/>
       <c r="M46" s="25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N46" s="25" t="s">
         <v>33</v>
@@ -4102,16 +4110,16 @@
         <v>35</v>
       </c>
       <c r="R46" s="25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S46" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T46" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="U46" s="25" t="s">
         <v>60</v>
-      </c>
-      <c r="U46" s="25" t="s">
-        <v>61</v>
       </c>
       <c r="V46" s="25" t="s">
         <v>32</v>
@@ -4123,10 +4131,10 @@
     <row r="47" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A47" s="20"/>
       <c r="B47" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C47" s="13" t="s">
         <v>64</v>
-      </c>
-      <c r="C47" s="13" t="s">
-        <v>65</v>
       </c>
       <c r="D47" s="13">
         <v>1</v>
@@ -4165,7 +4173,7 @@
         <v>29</v>
       </c>
       <c r="R47" s="18" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="S47" s="18" t="s">
         <v>31</v>
@@ -4218,7 +4226,7 @@
         <v>29</v>
       </c>
       <c r="R48" s="18" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="S48" s="18" t="s">
         <v>31</v>
@@ -4271,7 +4279,7 @@
         <v>29</v>
       </c>
       <c r="R49" s="18" t="s">
-        <v>39</v>
+        <v>247</v>
       </c>
       <c r="S49" s="18" t="s">
         <v>31</v>
@@ -4313,7 +4321,7 @@
       <c r="K50" s="18"/>
       <c r="L50" s="18"/>
       <c r="M50" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N50" s="18" t="s">
         <v>28</v>
@@ -4328,7 +4336,7 @@
         <v>35</v>
       </c>
       <c r="R50" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S50" s="18" t="s">
         <v>31</v>
@@ -4366,7 +4374,7 @@
       <c r="K51" s="18"/>
       <c r="L51" s="18"/>
       <c r="M51" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N51" s="18" t="s">
         <v>33</v>
@@ -4381,7 +4389,7 @@
         <v>35</v>
       </c>
       <c r="R51" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S51" s="18" t="s">
         <v>31</v>
@@ -4423,7 +4431,7 @@
       <c r="K52" s="18"/>
       <c r="L52" s="18"/>
       <c r="M52" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N52" s="18" t="s">
         <v>28</v>
@@ -4438,7 +4446,7 @@
         <v>35</v>
       </c>
       <c r="R52" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S52" s="18" t="s">
         <v>31</v>
@@ -4476,7 +4484,7 @@
       <c r="K53" s="18"/>
       <c r="L53" s="18"/>
       <c r="M53" s="18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N53" s="18" t="s">
         <v>33</v>
@@ -4491,7 +4499,7 @@
         <v>35</v>
       </c>
       <c r="R53" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S53" s="18" t="s">
         <v>31</v>
@@ -4512,10 +4520,10 @@
     <row r="54" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="32" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="32" t="s">
         <v>66</v>
-      </c>
-      <c r="C54" s="32" t="s">
-        <v>67</v>
       </c>
       <c r="D54" s="32">
         <v>1</v>
@@ -4554,16 +4562,16 @@
         <v>29</v>
       </c>
       <c r="R54" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="S54" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T54" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="S54" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T54" s="25" t="s">
+      <c r="U54" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="U54" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="V54" s="25" t="s">
         <v>32</v>
@@ -4607,16 +4615,16 @@
         <v>29</v>
       </c>
       <c r="R55" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="S55" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T55" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="S55" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T55" s="25" t="s">
+      <c r="U55" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="U55" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="V55" s="25" t="s">
         <v>32</v>
@@ -4670,10 +4678,10 @@
         <v>37</v>
       </c>
       <c r="T56" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="U56" s="25" t="s">
         <v>69</v>
-      </c>
-      <c r="U56" s="25" t="s">
-        <v>70</v>
       </c>
       <c r="V56" s="25" t="s">
         <v>32</v>
@@ -4685,10 +4693,10 @@
     <row r="57" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A57" s="20"/>
       <c r="B57" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="C57" s="13" t="s">
         <v>71</v>
-      </c>
-      <c r="C57" s="13" t="s">
-        <v>72</v>
       </c>
       <c r="D57" s="13">
         <v>1</v>
@@ -4727,16 +4735,16 @@
         <v>29</v>
       </c>
       <c r="R57" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S57" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T57" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="S57" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T57" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="U57" s="69" t="s">
-        <v>252</v>
+      <c r="U57" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="V57" s="18" t="s">
         <v>32</v>
@@ -4780,16 +4788,16 @@
         <v>29</v>
       </c>
       <c r="R58" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S58" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T58" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="S58" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T58" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="U58" s="69" t="s">
-        <v>252</v>
+      <c r="U58" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="V58" s="18" t="s">
         <v>32</v>
@@ -4833,16 +4841,16 @@
         <v>29</v>
       </c>
       <c r="R59" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="S59" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T59" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="S59" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T59" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="U59" s="69" t="s">
-        <v>252</v>
+      <c r="U59" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="V59" s="18" t="s">
         <v>32</v>
@@ -4890,16 +4898,16 @@
         <v>35</v>
       </c>
       <c r="R60" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S60" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T60" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="U60" s="69" t="s">
-        <v>252</v>
+      <c r="T60" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U60" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="V60" s="18" t="s">
         <v>32</v>
@@ -4947,16 +4955,16 @@
         <v>35</v>
       </c>
       <c r="R61" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S61" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="T61" s="69" t="s">
-        <v>251</v>
-      </c>
-      <c r="U61" s="69" t="s">
-        <v>252</v>
+      <c r="T61" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U61" s="18" t="s">
+        <v>74</v>
       </c>
       <c r="V61" s="18" t="s">
         <v>32</v>
@@ -4968,10 +4976,10 @@
     <row r="62" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A62" s="20"/>
       <c r="B62" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C62" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="C62" s="32" t="s">
-        <v>77</v>
       </c>
       <c r="D62" s="32">
         <v>1</v>
@@ -5016,10 +5024,10 @@
         <v>31</v>
       </c>
       <c r="T62" s="25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U62" s="25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V62" s="25" t="s">
         <v>32</v>
@@ -5069,10 +5077,10 @@
         <v>31</v>
       </c>
       <c r="T63" s="25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U63" s="25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V63" s="25" t="s">
         <v>32</v>
@@ -5126,10 +5134,10 @@
         <v>31</v>
       </c>
       <c r="T64" s="25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U64" s="25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V64" s="25" t="s">
         <v>32</v>
@@ -5183,10 +5191,10 @@
         <v>31</v>
       </c>
       <c r="T65" s="25" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="U65" s="25" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="V65" s="25" t="s">
         <v>32</v>
@@ -5242,10 +5250,10 @@
         <v>31</v>
       </c>
       <c r="T66" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="U66" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V66" s="25" t="s">
         <v>32</v>
@@ -5295,10 +5303,10 @@
         <v>31</v>
       </c>
       <c r="T67" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="U67" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V67" s="25" t="s">
         <v>32</v>
@@ -5352,10 +5360,10 @@
         <v>31</v>
       </c>
       <c r="T68" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="U68" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V68" s="25" t="s">
         <v>32</v>
@@ -5409,10 +5417,10 @@
         <v>31</v>
       </c>
       <c r="T69" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="U69" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V69" s="25" t="s">
         <v>32</v>
@@ -5424,10 +5432,10 @@
     <row r="70" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A70" s="20"/>
       <c r="B70" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C70" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="D70" s="13">
         <v>1</v>
@@ -5466,16 +5474,16 @@
         <v>29</v>
       </c>
       <c r="R70" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="S70" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T70" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S70" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T70" s="18" t="s">
+      <c r="U70" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="U70" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="V70" s="18" t="s">
         <v>32</v>
@@ -5519,16 +5527,16 @@
         <v>29</v>
       </c>
       <c r="R71" s="18" t="s">
+        <v>248</v>
+      </c>
+      <c r="S71" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T71" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S71" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T71" s="18" t="s">
+      <c r="U71" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="U71" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="V71" s="18" t="s">
         <v>32</v>
@@ -5576,16 +5584,16 @@
         <v>35</v>
       </c>
       <c r="R72" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S72" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T72" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="U72" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="U72" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="V72" s="18" t="s">
         <v>32</v>
@@ -5633,16 +5641,16 @@
         <v>35</v>
       </c>
       <c r="R73" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S73" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T73" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="U73" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="U73" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="V73" s="18" t="s">
         <v>32</v>
@@ -5654,10 +5662,10 @@
     <row r="74" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A74" s="20"/>
       <c r="B74" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" s="32" t="s">
         <v>83</v>
-      </c>
-      <c r="C74" s="32" t="s">
-        <v>84</v>
       </c>
       <c r="D74" s="32">
         <v>1</v>
@@ -5696,16 +5704,16 @@
         <v>29</v>
       </c>
       <c r="R74" s="25" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="S74" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T74" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U74" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="U74" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="V74" s="25" t="s">
         <v>32</v>
@@ -5749,16 +5757,16 @@
         <v>29</v>
       </c>
       <c r="R75" s="25" t="s">
-        <v>80</v>
+        <v>249</v>
       </c>
       <c r="S75" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T75" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U75" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="U75" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="V75" s="25" t="s">
         <v>32</v>
@@ -5806,16 +5814,16 @@
         <v>35</v>
       </c>
       <c r="R76" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S76" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T76" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U76" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="U76" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="V76" s="25" t="s">
         <v>32</v>
@@ -5863,16 +5871,16 @@
         <v>35</v>
       </c>
       <c r="R77" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S77" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T77" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U77" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="U77" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="V77" s="25" t="s">
         <v>32</v>
@@ -5884,10 +5892,10 @@
     <row r="78" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A78" s="20"/>
       <c r="B78" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C78" s="13" t="s">
         <v>88</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>89</v>
       </c>
       <c r="D78" s="13">
         <v>1</v>
@@ -5926,16 +5934,16 @@
         <v>29</v>
       </c>
       <c r="R78" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S78" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T78" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S78" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T78" s="18" t="s">
+      <c r="U78" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="U78" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="V78" s="18" t="s">
         <v>32</v>
@@ -5979,16 +5987,16 @@
         <v>29</v>
       </c>
       <c r="R79" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="S79" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T79" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="S79" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T79" s="18" t="s">
+      <c r="U79" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="U79" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="V79" s="18" t="s">
         <v>32</v>
@@ -6036,16 +6044,16 @@
         <v>35</v>
       </c>
       <c r="R80" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S80" s="18" t="s">
         <v>37</v>
       </c>
       <c r="T80" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="U80" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="U80" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="V80" s="18" t="s">
         <v>32</v>
@@ -6093,16 +6101,16 @@
         <v>35</v>
       </c>
       <c r="R81" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S81" s="18" t="s">
         <v>37</v>
       </c>
       <c r="T81" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="U81" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="U81" s="18" t="s">
-        <v>82</v>
       </c>
       <c r="V81" s="18" t="s">
         <v>32</v>
@@ -6114,10 +6122,10 @@
     <row r="82" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A82" s="20"/>
       <c r="B82" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C82" s="32" t="s">
         <v>90</v>
-      </c>
-      <c r="C82" s="32" t="s">
-        <v>91</v>
       </c>
       <c r="D82" s="32">
         <v>1</v>
@@ -6156,16 +6164,16 @@
         <v>29</v>
       </c>
       <c r="R82" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S82" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T82" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="U82" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V82" s="25" t="s">
         <v>32</v>
@@ -6209,16 +6217,16 @@
         <v>29</v>
       </c>
       <c r="R83" s="25" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S83" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T83" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="U83" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V83" s="25" t="s">
         <v>32</v>
@@ -6251,7 +6259,7 @@
       <c r="K84" s="25"/>
       <c r="L84" s="25"/>
       <c r="M84" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N84" s="25" t="s">
         <v>53</v>
@@ -6272,10 +6280,10 @@
         <v>37</v>
       </c>
       <c r="T84" s="25" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="U84" s="25" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="V84" s="25" t="s">
         <v>32</v>
@@ -6287,10 +6295,10 @@
     <row r="85" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A85" s="20"/>
       <c r="B85" s="13" t="s">
+        <v>93</v>
+      </c>
+      <c r="C85" s="39" t="s">
         <v>94</v>
-      </c>
-      <c r="C85" s="39" t="s">
-        <v>95</v>
       </c>
       <c r="D85" s="13">
         <v>1</v>
@@ -6329,16 +6337,16 @@
         <v>29</v>
       </c>
       <c r="R85" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S85" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T85" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="S85" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T85" s="18" t="s">
+      <c r="U85" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U85" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V85" s="18" t="s">
         <v>32</v>
@@ -6382,16 +6390,16 @@
         <v>29</v>
       </c>
       <c r="R86" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S86" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T86" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="S86" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T86" s="18" t="s">
+      <c r="U86" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U86" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V86" s="18" t="s">
         <v>32</v>
@@ -6435,16 +6443,16 @@
         <v>29</v>
       </c>
       <c r="R87" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="S87" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T87" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="S87" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T87" s="18" t="s">
+      <c r="U87" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U87" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V87" s="18" t="s">
         <v>32</v>
@@ -6477,7 +6485,7 @@
       <c r="K88" s="18"/>
       <c r="L88" s="18"/>
       <c r="M88" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N88" s="18" t="s">
         <v>53</v>
@@ -6492,16 +6500,16 @@
         <v>35</v>
       </c>
       <c r="R88" s="18" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="S88" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T88" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U88" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U88" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V88" s="18" t="s">
         <v>32</v>
@@ -6549,10 +6557,10 @@
         <v>37</v>
       </c>
       <c r="T89" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U89" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U89" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V89" s="18" t="s">
         <v>32</v>
@@ -6564,10 +6572,10 @@
     <row r="90" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A90" s="20"/>
       <c r="B90" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C90" s="32" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D90" s="32">
         <v>1</v>
@@ -6591,7 +6599,7 @@
       <c r="K90" s="25"/>
       <c r="L90" s="25"/>
       <c r="M90" s="25" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N90" s="25" t="s">
         <v>40</v>
@@ -6612,10 +6620,10 @@
         <v>31</v>
       </c>
       <c r="T90" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U90" s="25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="V90" s="25" t="s">
         <v>32</v>
@@ -6648,7 +6656,7 @@
       <c r="K91" s="25"/>
       <c r="L91" s="25"/>
       <c r="M91" s="25" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="N91" s="25" t="s">
         <v>33</v>
@@ -6669,10 +6677,10 @@
         <v>31</v>
       </c>
       <c r="T91" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U91" s="25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="V91" s="25" t="s">
         <v>32</v>
@@ -6726,10 +6734,10 @@
         <v>37</v>
       </c>
       <c r="T92" s="25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="U92" s="25" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="V92" s="25" t="s">
         <v>32</v>
@@ -6741,10 +6749,10 @@
     <row r="93" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A93" s="20"/>
       <c r="B93" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C93" s="13" t="s">
         <v>102</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>103</v>
       </c>
       <c r="D93" s="13">
         <v>1</v>
@@ -6783,16 +6791,16 @@
         <v>29</v>
       </c>
       <c r="R93" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="S93" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T93" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="U93" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="S93" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T93" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="U93" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="V93" s="18" t="s">
         <v>32</v>
@@ -6836,16 +6844,16 @@
         <v>29</v>
       </c>
       <c r="R94" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="S94" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T94" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="U94" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="S94" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T94" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="U94" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="V94" s="18" t="s">
         <v>32</v>
@@ -6889,16 +6897,16 @@
         <v>29</v>
       </c>
       <c r="R95" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="S95" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="T95" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="U95" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="S95" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T95" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="U95" s="18" t="s">
-        <v>106</v>
       </c>
       <c r="V95" s="18" t="s">
         <v>32</v>
@@ -6948,7 +6956,7 @@
         <v>29</v>
       </c>
       <c r="R96" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S96" s="18" t="s">
         <v>31</v>
@@ -7001,7 +7009,7 @@
         <v>29</v>
       </c>
       <c r="R97" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S97" s="18" t="s">
         <v>31</v>
@@ -7054,7 +7062,7 @@
         <v>29</v>
       </c>
       <c r="R98" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S98" s="18" t="s">
         <v>31</v>
@@ -7075,10 +7083,10 @@
     <row r="99" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A99" s="20"/>
       <c r="B99" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C99" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="D99" s="32">
         <v>1</v>
@@ -7123,10 +7131,10 @@
         <v>31</v>
       </c>
       <c r="T99" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U99" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V99" s="25" t="s">
         <v>32</v>
@@ -7176,10 +7184,10 @@
         <v>31</v>
       </c>
       <c r="T100" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U100" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V100" s="25" t="s">
         <v>32</v>
@@ -7233,10 +7241,10 @@
         <v>31</v>
       </c>
       <c r="T101" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U101" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V101" s="25" t="s">
         <v>32</v>
@@ -7290,10 +7298,10 @@
         <v>31</v>
       </c>
       <c r="T102" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U102" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V102" s="25" t="s">
         <v>32</v>
@@ -7305,10 +7313,10 @@
     <row r="103" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A103" s="20"/>
       <c r="B103" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C103" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D103" s="13">
         <v>1</v>
@@ -7347,16 +7355,16 @@
         <v>29</v>
       </c>
       <c r="R103" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S103" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T103" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="U103" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="V103" s="18" t="s">
         <v>32</v>
@@ -7400,16 +7408,16 @@
         <v>29</v>
       </c>
       <c r="R104" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="S104" s="18" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="T104" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="U104" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="V104" s="18" t="s">
         <v>32</v>
@@ -7457,16 +7465,16 @@
         <v>35</v>
       </c>
       <c r="R105" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S105" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T105" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="U105" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="V105" s="18" t="s">
         <v>32</v>
@@ -7514,16 +7522,16 @@
         <v>35</v>
       </c>
       <c r="R106" s="18" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S106" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T106" s="18" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="U106" s="18" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="V106" s="18" t="s">
         <v>32</v>
@@ -7535,10 +7543,10 @@
     <row r="107" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A107" s="20"/>
       <c r="B107" s="32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C107" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D107" s="32">
         <v>1</v>
@@ -7577,16 +7585,16 @@
         <v>29</v>
       </c>
       <c r="R107" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S107" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T107" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U107" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="U107" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="V107" s="25" t="s">
         <v>32</v>
@@ -7630,16 +7638,16 @@
         <v>29</v>
       </c>
       <c r="R108" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="S108" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T108" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U108" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="U108" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="V108" s="25" t="s">
         <v>32</v>
@@ -7687,16 +7695,16 @@
         <v>35</v>
       </c>
       <c r="R109" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S109" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T109" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U109" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="U109" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="V109" s="25" t="s">
         <v>32</v>
@@ -7744,16 +7752,16 @@
         <v>35</v>
       </c>
       <c r="R110" s="25" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="S110" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T110" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="U110" s="25" t="s">
         <v>85</v>
-      </c>
-      <c r="U110" s="25" t="s">
-        <v>86</v>
       </c>
       <c r="V110" s="25" t="s">
         <v>32</v>
@@ -7765,10 +7773,10 @@
     <row r="111" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A111" s="20"/>
       <c r="B111" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D111" s="13">
         <v>1</v>
@@ -7807,16 +7815,16 @@
         <v>29</v>
       </c>
       <c r="R111" s="18" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="S111" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T111" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U111" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="U111" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="V111" s="18" t="s">
         <v>32</v>
@@ -7860,16 +7868,16 @@
         <v>29</v>
       </c>
       <c r="R112" s="18" t="s">
-        <v>121</v>
+        <v>251</v>
       </c>
       <c r="S112" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T112" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U112" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="U112" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="V112" s="18" t="s">
         <v>32</v>
@@ -7923,10 +7931,10 @@
         <v>31</v>
       </c>
       <c r="T113" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U113" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="U113" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="V113" s="18" t="s">
         <v>32</v>
@@ -7980,10 +7988,10 @@
         <v>37</v>
       </c>
       <c r="T114" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U114" s="18" t="s">
         <v>74</v>
-      </c>
-      <c r="U114" s="18" t="s">
-        <v>75</v>
       </c>
       <c r="V114" s="18" t="s">
         <v>32</v>
@@ -7995,10 +8003,10 @@
     <row r="115" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A115" s="20"/>
       <c r="B115" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C115" s="25" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D115" s="25">
         <v>1</v>
@@ -8029,10 +8037,10 @@
       <c r="R115" s="25"/>
       <c r="S115" s="25"/>
       <c r="T115" s="25" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="U115" s="25" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="V115" s="25" t="s">
         <v>32</v>
@@ -8044,10 +8052,10 @@
     <row r="116" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A116" s="20"/>
       <c r="B116" s="13" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D116" s="13">
         <v>1</v>
@@ -8086,16 +8094,16 @@
         <v>29</v>
       </c>
       <c r="R116" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S116" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T116" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U116" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U116" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V116" s="18" t="s">
         <v>32</v>
@@ -8139,16 +8147,16 @@
         <v>29</v>
       </c>
       <c r="R117" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S117" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T117" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U117" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U117" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V117" s="18" t="s">
         <v>32</v>
@@ -8192,16 +8200,16 @@
         <v>29</v>
       </c>
       <c r="R118" s="18" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="S118" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T118" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U118" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U118" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V118" s="18" t="s">
         <v>32</v>
@@ -8255,10 +8263,10 @@
         <v>31</v>
       </c>
       <c r="T119" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U119" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U119" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V119" s="18" t="s">
         <v>32</v>
@@ -8312,10 +8320,10 @@
         <v>31</v>
       </c>
       <c r="T120" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="U120" s="18" t="s">
         <v>97</v>
-      </c>
-      <c r="U120" s="18" t="s">
-        <v>98</v>
       </c>
       <c r="V120" s="18" t="s">
         <v>32</v>
@@ -8327,10 +8335,10 @@
     <row r="121" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A121" s="20"/>
       <c r="B121" s="21" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C121" s="21" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D121" s="32">
         <v>1</v>
@@ -8354,7 +8362,7 @@
       <c r="K121" s="25"/>
       <c r="L121" s="25"/>
       <c r="M121" s="25" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N121" s="25" t="s">
         <v>53</v>
@@ -8368,15 +8376,17 @@
       <c r="Q121" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R121" s="25"/>
+      <c r="R121" s="25" t="s">
+        <v>252</v>
+      </c>
       <c r="S121" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T121" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U121" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V121" s="25" t="s">
         <v>32</v>
@@ -8405,7 +8415,7 @@
       <c r="K122" s="25"/>
       <c r="L122" s="25"/>
       <c r="M122" s="25" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="N122" s="25" t="s">
         <v>40</v>
@@ -8419,15 +8429,17 @@
       <c r="Q122" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="R122" s="25"/>
+      <c r="R122" s="25" t="s">
+        <v>252</v>
+      </c>
       <c r="S122" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T122" s="25" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U122" s="25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V122" s="25" t="s">
         <v>32</v>
@@ -8439,10 +8451,10 @@
     <row r="123" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A123" s="20"/>
       <c r="B123" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C123" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D123" s="13">
         <v>1</v>
@@ -8481,16 +8493,16 @@
         <v>29</v>
       </c>
       <c r="R123" s="18" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="S123" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T123" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U123" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V123" s="18" t="s">
         <v>32</v>
@@ -8534,16 +8546,16 @@
         <v>29</v>
       </c>
       <c r="R124" s="18" t="s">
-        <v>131</v>
+        <v>253</v>
       </c>
       <c r="S124" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T124" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U124" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V124" s="18" t="s">
         <v>32</v>
@@ -8555,10 +8567,10 @@
     <row r="125" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A125" s="20"/>
       <c r="B125" s="32" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C125" s="32" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D125" s="32">
         <v>1</v>
@@ -8597,16 +8609,16 @@
         <v>29</v>
       </c>
       <c r="R125" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S125" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T125" s="25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="U125" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="V125" s="25" t="s">
         <v>32</v>
@@ -8650,16 +8662,16 @@
         <v>29</v>
       </c>
       <c r="R126" s="25" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S126" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T126" s="25" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="U126" s="25" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="V126" s="25" t="s">
         <v>32</v>
@@ -8671,10 +8683,10 @@
     <row r="127" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A127" s="20"/>
       <c r="B127" s="18" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C127" s="18" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D127" s="18">
         <v>1</v>
@@ -8705,10 +8717,10 @@
       <c r="R127" s="18"/>
       <c r="S127" s="18"/>
       <c r="T127" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="U127" s="18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="V127" s="18" t="s">
         <v>32</v>
@@ -8720,10 +8732,10 @@
     <row r="128" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A128" s="20"/>
       <c r="B128" s="32" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C128" s="32" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D128" s="32">
         <v>1</v>
@@ -8762,16 +8774,16 @@
         <v>29</v>
       </c>
       <c r="R128" s="25" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="S128" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T128" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U128" s="25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V128" s="25" t="s">
         <v>32</v>
@@ -8815,16 +8827,16 @@
         <v>29</v>
       </c>
       <c r="R129" s="25" t="s">
-        <v>138</v>
+        <v>246</v>
       </c>
       <c r="S129" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T129" s="25" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U129" s="25" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V129" s="25" t="s">
         <v>32</v>
@@ -8836,10 +8848,10 @@
     <row r="130" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A130" s="20"/>
       <c r="B130" s="13" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C130" s="13" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D130" s="13">
         <v>1</v>
@@ -8878,16 +8890,16 @@
         <v>29</v>
       </c>
       <c r="R130" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S130" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T130" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U130" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V130" s="18" t="s">
         <v>32</v>
@@ -8931,16 +8943,16 @@
         <v>29</v>
       </c>
       <c r="R131" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S131" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T131" s="18" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="U131" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V131" s="18" t="s">
         <v>32</v>
@@ -8952,10 +8964,10 @@
     <row r="132" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A132" s="20"/>
       <c r="B132" s="32" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C132" s="32" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D132" s="32">
         <v>1</v>
@@ -9000,10 +9012,10 @@
         <v>31</v>
       </c>
       <c r="T132" s="25" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U132" s="25" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V132" s="25" t="s">
         <v>32</v>
@@ -9053,10 +9065,10 @@
         <v>31</v>
       </c>
       <c r="T133" s="45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U133" s="45" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V133" s="25" t="s">
         <v>32</v>
@@ -9108,10 +9120,10 @@
         <v>31</v>
       </c>
       <c r="T134" s="45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U134" s="45" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V134" s="25" t="s">
         <v>32</v>
@@ -9159,16 +9171,16 @@
         <v>29</v>
       </c>
       <c r="R135" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S135" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T135" s="45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U135" s="45" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V135" s="25" t="s">
         <v>32</v>
@@ -9216,16 +9228,16 @@
         <v>29</v>
       </c>
       <c r="R136" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S136" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T136" s="45" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U136" s="45" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V136" s="25" t="s">
         <v>32</v>
@@ -9275,16 +9287,16 @@
         <v>29</v>
       </c>
       <c r="R137" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S137" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T137" s="46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U137" s="46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V137" s="25" t="s">
         <v>32</v>
@@ -9328,16 +9340,16 @@
         <v>29</v>
       </c>
       <c r="R138" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S138" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T138" s="46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U138" s="46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V138" s="25" t="s">
         <v>32</v>
@@ -9383,16 +9395,16 @@
         <v>29</v>
       </c>
       <c r="R139" s="25" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="S139" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T139" s="46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U139" s="46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V139" s="25" t="s">
         <v>32</v>
@@ -9440,16 +9452,16 @@
         <v>29</v>
       </c>
       <c r="R140" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S140" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T140" s="46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U140" s="46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V140" s="25" t="s">
         <v>32</v>
@@ -9497,16 +9509,16 @@
         <v>29</v>
       </c>
       <c r="R141" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S141" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T141" s="46" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U141" s="46" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="V141" s="25" t="s">
         <v>32</v>
@@ -9556,16 +9568,16 @@
         <v>29</v>
       </c>
       <c r="R142" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="S142" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T142" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="U142" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="S142" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T142" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="U142" s="25" t="s">
-        <v>154</v>
       </c>
       <c r="V142" s="25" t="s">
         <v>32</v>
@@ -9609,16 +9621,16 @@
         <v>29</v>
       </c>
       <c r="R143" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="S143" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T143" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="U143" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="S143" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T143" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="U143" s="25" t="s">
-        <v>154</v>
       </c>
       <c r="V143" s="25" t="s">
         <v>32</v>
@@ -9664,16 +9676,16 @@
         <v>29</v>
       </c>
       <c r="R144" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="S144" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T144" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="U144" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="S144" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T144" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="U144" s="25" t="s">
-        <v>154</v>
       </c>
       <c r="V144" s="25" t="s">
         <v>32</v>
@@ -9721,16 +9733,16 @@
         <v>29</v>
       </c>
       <c r="R145" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S145" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T145" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U145" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V145" s="25" t="s">
         <v>32</v>
@@ -9778,16 +9790,16 @@
         <v>29</v>
       </c>
       <c r="R146" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S146" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T146" s="25" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="U146" s="25" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="V146" s="25" t="s">
         <v>32</v>
@@ -9843,10 +9855,10 @@
         <v>31</v>
       </c>
       <c r="T147" s="46" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U147" s="46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V147" s="25" t="s">
         <v>32</v>
@@ -9896,10 +9908,10 @@
         <v>31</v>
       </c>
       <c r="T148" s="46" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U148" s="46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V148" s="25" t="s">
         <v>32</v>
@@ -9951,10 +9963,10 @@
         <v>31</v>
       </c>
       <c r="T149" s="46" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U149" s="46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V149" s="25" t="s">
         <v>32</v>
@@ -10002,16 +10014,16 @@
         <v>29</v>
       </c>
       <c r="R150" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S150" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T150" s="46" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U150" s="46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V150" s="25" t="s">
         <v>32</v>
@@ -10059,16 +10071,16 @@
         <v>29</v>
       </c>
       <c r="R151" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S151" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T151" s="46" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U151" s="46" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V151" s="25" t="s">
         <v>32</v>
@@ -10080,10 +10092,10 @@
     <row r="152" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A152" s="20"/>
       <c r="B152" s="13" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D152" s="13">
         <v>1</v>
@@ -10122,16 +10134,16 @@
         <v>29</v>
       </c>
       <c r="R152" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S152" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T152" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U152" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V152" s="18" t="s">
         <v>32</v>
@@ -10175,16 +10187,16 @@
         <v>29</v>
       </c>
       <c r="R153" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S153" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T153" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U153" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V153" s="18" t="s">
         <v>32</v>
@@ -10232,16 +10244,16 @@
         <v>29</v>
       </c>
       <c r="R154" s="18" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="S154" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T154" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U154" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V154" s="18" t="s">
         <v>32</v>
@@ -10291,16 +10303,16 @@
         <v>29</v>
       </c>
       <c r="R155" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S155" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T155" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U155" s="44" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V155" s="18" t="s">
         <v>32</v>
@@ -10344,16 +10356,16 @@
         <v>29</v>
       </c>
       <c r="R156" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S156" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T156" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U156" s="44" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V156" s="18" t="s">
         <v>32</v>
@@ -10401,16 +10413,16 @@
         <v>29</v>
       </c>
       <c r="R157" s="18" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="S157" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T157" s="44" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="U157" s="44" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="V157" s="18" t="s">
         <v>32</v>
@@ -10422,10 +10434,10 @@
     <row r="158" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A158" s="20"/>
       <c r="B158" s="32" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C158" s="32" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D158" s="32">
         <v>1</v>
@@ -10464,16 +10476,16 @@
         <v>29</v>
       </c>
       <c r="R158" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S158" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T158" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U158" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V158" s="25" t="s">
         <v>32</v>
@@ -10517,16 +10529,16 @@
         <v>29</v>
       </c>
       <c r="R159" s="25" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="S159" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T159" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U159" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V159" s="25" t="s">
         <v>32</v>
@@ -10576,16 +10588,16 @@
         <v>29</v>
       </c>
       <c r="R160" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S160" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T160" s="25" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="U160" s="25" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="V160" s="25" t="s">
         <v>32</v>
@@ -10629,16 +10641,16 @@
         <v>29</v>
       </c>
       <c r="R161" s="25" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S161" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T161" s="44" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="U161" s="44" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="V161" s="25" t="s">
         <v>32</v>
@@ -10650,10 +10662,10 @@
     <row r="162" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A162" s="20"/>
       <c r="B162" s="13" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C162" s="13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D162" s="13">
         <v>1</v>
@@ -10692,16 +10704,16 @@
         <v>29</v>
       </c>
       <c r="R162" s="18" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="S162" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T162" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U162" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V162" s="18" t="s">
         <v>32</v>
@@ -10745,16 +10757,16 @@
         <v>29</v>
       </c>
       <c r="R163" s="18" t="s">
-        <v>167</v>
+        <v>245</v>
       </c>
       <c r="S163" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T163" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U163" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V163" s="18" t="s">
         <v>32</v>
@@ -10802,16 +10814,16 @@
         <v>29</v>
       </c>
       <c r="R164" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S164" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T164" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U164" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V164" s="18" t="s">
         <v>32</v>
@@ -10859,16 +10871,16 @@
         <v>29</v>
       </c>
       <c r="R165" s="18" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="S165" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T165" s="18" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="U165" s="18" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="V165" s="18" t="s">
         <v>32</v>
@@ -10880,10 +10892,10 @@
     <row r="166" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A166" s="20"/>
       <c r="B166" s="32" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="C166" s="32" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="D166" s="32">
         <v>1</v>
@@ -10922,16 +10934,16 @@
         <v>29</v>
       </c>
       <c r="R166" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S166" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T166" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U166" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V166" s="25" t="s">
         <v>32</v>
@@ -10975,16 +10987,16 @@
         <v>29</v>
       </c>
       <c r="R167" s="25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="S167" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T167" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U167" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V167" s="25" t="s">
         <v>32</v>
@@ -11032,16 +11044,16 @@
         <v>29</v>
       </c>
       <c r="R168" s="25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S168" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T168" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U168" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V168" s="25" t="s">
         <v>32</v>
@@ -11089,16 +11101,16 @@
         <v>29</v>
       </c>
       <c r="R169" s="25" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="S169" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T169" s="25" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U169" s="25" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V169" s="25" t="s">
         <v>32</v>
@@ -11110,10 +11122,10 @@
     <row r="170" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A170" s="20"/>
       <c r="B170" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C170" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="D170" s="13">
         <v>1</v>
@@ -11152,16 +11164,16 @@
         <v>29</v>
       </c>
       <c r="R170" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S170" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T170" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="U170" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V170" s="18" t="s">
         <v>32</v>
@@ -11205,16 +11217,16 @@
         <v>29</v>
       </c>
       <c r="R171" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S171" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T171" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="U171" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V171" s="18" t="s">
         <v>32</v>
@@ -11262,16 +11274,16 @@
         <v>29</v>
       </c>
       <c r="R172" s="18" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="S172" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T172" s="18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="U172" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V172" s="18" t="s">
         <v>32</v>
@@ -11283,10 +11295,10 @@
     <row r="173" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A173" s="20"/>
       <c r="B173" s="32" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="C173" s="32" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="D173" s="32">
         <v>1</v>
@@ -11325,16 +11337,16 @@
         <v>29</v>
       </c>
       <c r="R173" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S173" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T173" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="U173" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V173" s="25" t="s">
         <v>32</v>
@@ -11378,16 +11390,16 @@
         <v>29</v>
       </c>
       <c r="R174" s="25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S174" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T174" s="25" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="U174" s="25" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="V174" s="25" t="s">
         <v>32</v>
@@ -11399,10 +11411,10 @@
     <row r="175" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A175" s="20"/>
       <c r="B175" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C175" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D175" s="13">
         <v>1</v>
@@ -11441,16 +11453,16 @@
         <v>29</v>
       </c>
       <c r="R175" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S175" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T175" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U175" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V175" s="18" t="s">
         <v>32</v>
@@ -11494,16 +11506,16 @@
         <v>29</v>
       </c>
       <c r="R176" s="18" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="S176" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T176" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U176" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V176" s="18" t="s">
         <v>32</v>
@@ -11551,16 +11563,16 @@
         <v>29</v>
       </c>
       <c r="R177" s="18" t="s">
-        <v>80</v>
+        <v>254</v>
       </c>
       <c r="S177" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T177" s="18" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="U177" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="V177" s="18" t="s">
         <v>32</v>
@@ -11610,16 +11622,16 @@
         <v>29</v>
       </c>
       <c r="R178" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S178" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T178" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U178" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="V178" s="18" t="s">
         <v>32</v>
@@ -11663,16 +11675,16 @@
         <v>29</v>
       </c>
       <c r="R179" s="18" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S179" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T179" s="18" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="U179" s="18" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="V179" s="18" t="s">
         <v>32</v>
@@ -11720,16 +11732,16 @@
         <v>29</v>
       </c>
       <c r="R180" s="18" t="s">
-        <v>96</v>
+        <v>254</v>
       </c>
       <c r="S180" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T180" s="18" t="s">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="U180" s="18" t="s">
-        <v>237</v>
+        <v>159</v>
       </c>
       <c r="V180" s="18" t="s">
         <v>32</v>
@@ -11741,10 +11753,10 @@
     <row r="181" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A181" s="20"/>
       <c r="B181" s="32" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C181" s="32" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="D181" s="32">
         <v>1</v>
@@ -11783,16 +11795,16 @@
         <v>29</v>
       </c>
       <c r="R181" s="25" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="S181" s="25" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="T181" s="25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U181" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="V181" s="25" t="s">
         <v>32</v>
@@ -11836,16 +11848,16 @@
         <v>29</v>
       </c>
       <c r="R182" s="25" t="s">
-        <v>143</v>
+        <v>255</v>
       </c>
       <c r="S182" s="25" t="s">
-        <v>31</v>
+        <v>256</v>
       </c>
       <c r="T182" s="25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U182" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="V182" s="25" t="s">
         <v>32</v>
@@ -11878,7 +11890,7 @@
       <c r="K183" s="25"/>
       <c r="L183" s="25"/>
       <c r="M183" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N183" s="25" t="s">
         <v>53</v>
@@ -11890,19 +11902,19 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q183" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R183" s="25" t="s">
         <v>36</v>
       </c>
       <c r="S183" s="25" t="s">
-        <v>186</v>
+        <v>37</v>
       </c>
       <c r="T183" s="25" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U183" s="25" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="V183" s="25" t="s">
         <v>32</v>
@@ -11952,16 +11964,16 @@
         <v>29</v>
       </c>
       <c r="R184" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S184" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T184" s="25" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="U184" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V184" s="25" t="s">
         <v>32</v>
@@ -12005,16 +12017,16 @@
         <v>29</v>
       </c>
       <c r="R185" s="25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="S185" s="25" t="s">
         <v>31</v>
       </c>
       <c r="T185" s="25" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="U185" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V185" s="25" t="s">
         <v>32</v>
@@ -12047,7 +12059,7 @@
       <c r="K186" s="25"/>
       <c r="L186" s="25"/>
       <c r="M186" s="25" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N186" s="25" t="s">
         <v>33</v>
@@ -12059,19 +12071,19 @@
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="Q186" s="25" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R186" s="25" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S186" s="25" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T186" s="25" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="U186" s="25" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="V186" s="25" t="s">
         <v>32</v>
@@ -12083,10 +12095,10 @@
     <row r="187" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A187" s="20"/>
       <c r="B187" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C187" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D187" s="13">
         <v>1</v>
@@ -12125,16 +12137,16 @@
         <v>29</v>
       </c>
       <c r="R187" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S187" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T187" s="18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U187" s="18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="V187" s="18" t="s">
         <v>32</v>
@@ -12178,16 +12190,16 @@
         <v>29</v>
       </c>
       <c r="R188" s="18" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="S188" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T188" s="18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U188" s="18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="V188" s="18" t="s">
         <v>32</v>
@@ -12232,19 +12244,19 @@
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="Q189" s="18" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="R189" s="18" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="S189" s="18" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="T189" s="18" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="U189" s="18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="V189" s="18" t="s">
         <v>32</v>
@@ -12255,10 +12267,10 @@
     </row>
     <row r="190" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B190" s="61" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C190" s="64" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D190" s="66">
         <v>1</v>
@@ -12297,16 +12309,16 @@
         <v>29</v>
       </c>
       <c r="R190" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="S190" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T190" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="S190" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T190" s="25" t="s">
-        <v>196</v>
-      </c>
       <c r="U190" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V190" s="25" t="s">
         <v>32</v>
@@ -12350,16 +12362,16 @@
         <v>29</v>
       </c>
       <c r="R191" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="S191" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T191" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="S191" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T191" s="25" t="s">
-        <v>196</v>
-      </c>
       <c r="U191" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V191" s="25" t="s">
         <v>32</v>
@@ -12407,16 +12419,16 @@
         <v>29</v>
       </c>
       <c r="R192" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="S192" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T192" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="S192" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T192" s="25" t="s">
-        <v>196</v>
-      </c>
       <c r="U192" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V192" s="25" t="s">
         <v>32</v>
@@ -12463,16 +12475,16 @@
         <v>29</v>
       </c>
       <c r="R193" s="25" t="s">
+        <v>185</v>
+      </c>
+      <c r="S193" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="T193" s="25" t="s">
         <v>190</v>
       </c>
-      <c r="S193" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T193" s="25" t="s">
-        <v>196</v>
-      </c>
       <c r="U193" s="25" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V193" s="25" t="s">
         <v>32</v>
@@ -12484,10 +12496,10 @@
     <row r="194" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="B194" s="32" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="C194" s="32" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D194" s="32">
         <v>1</v>
@@ -12526,16 +12538,16 @@
         <v>29</v>
       </c>
       <c r="R194" s="25" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="S194" s="25" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="T194" s="25" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="U194" s="25" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="V194" s="25"/>
       <c r="W194" s="9"/>
@@ -12575,16 +12587,16 @@
         <v>29</v>
       </c>
       <c r="R195" s="25" t="s">
-        <v>175</v>
+        <v>48</v>
       </c>
       <c r="S195" s="25" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="T195" s="25" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="U195" s="25" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="V195" s="25"/>
       <c r="W195" s="9"/>
@@ -12629,16 +12641,16 @@
         <v>29</v>
       </c>
       <c r="R196" s="25" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="S196" s="25" t="s">
-        <v>31</v>
+        <v>257</v>
       </c>
       <c r="T196" s="25" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="U196" s="25" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="V196" s="25"/>
       <c r="W196" s="9"/>
@@ -12646,10 +12658,10 @@
     <row r="197" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A197" s="20"/>
       <c r="B197" s="15" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="C197" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="D197" s="13">
         <v>1</v>
@@ -12688,16 +12700,16 @@
         <v>29</v>
       </c>
       <c r="R197" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S197" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T197" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U197" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V197" s="18" t="s">
         <v>32</v>
@@ -12741,16 +12753,16 @@
         <v>29</v>
       </c>
       <c r="R198" s="18" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="S198" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T198" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U198" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V198" s="18" t="s">
         <v>32</v>
@@ -12783,7 +12795,7 @@
       <c r="K199" s="18"/>
       <c r="L199" s="18"/>
       <c r="M199" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N199" s="18" t="s">
         <v>28</v>
@@ -12798,16 +12810,16 @@
         <v>29</v>
       </c>
       <c r="R199" s="18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S199" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T199" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U199" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V199" s="18" t="s">
         <v>32</v>
@@ -12840,7 +12852,7 @@
       <c r="K200" s="18"/>
       <c r="L200" s="18"/>
       <c r="M200" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N200" s="18" t="s">
         <v>28</v>
@@ -12855,16 +12867,16 @@
         <v>29</v>
       </c>
       <c r="R200" s="18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S200" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T200" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U200" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V200" s="18" t="s">
         <v>32</v>
@@ -12897,7 +12909,7 @@
       <c r="K201" s="18"/>
       <c r="L201" s="18"/>
       <c r="M201" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N201" s="18" t="s">
         <v>33</v>
@@ -12912,16 +12924,16 @@
         <v>29</v>
       </c>
       <c r="R201" s="18" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="S201" s="18" t="s">
         <v>31</v>
       </c>
       <c r="T201" s="18" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="U201" s="18" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="V201" s="18" t="s">
         <v>32</v>
@@ -12933,10 +12945,10 @@
     <row r="202" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A202" s="20"/>
       <c r="B202" s="32" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C202" s="32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D202" s="32">
         <v>1</v>
@@ -12975,16 +12987,16 @@
         <v>29</v>
       </c>
       <c r="R202" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S202" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T202" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U202" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="V202" s="25" t="s">
         <v>32</v>
@@ -13028,16 +13040,16 @@
         <v>29</v>
       </c>
       <c r="R203" s="25" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="S203" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T203" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U203" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="V203" s="25" t="s">
         <v>32</v>
@@ -13085,16 +13097,16 @@
         <v>29</v>
       </c>
       <c r="R204" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="S204" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T204" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U204" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="V204" s="25" t="s">
         <v>32</v>
@@ -13144,16 +13156,16 @@
         <v>29</v>
       </c>
       <c r="R205" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="S205" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T205" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U205" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="V205" s="25" t="s">
         <v>32</v>
@@ -13197,16 +13209,16 @@
         <v>29</v>
       </c>
       <c r="R206" s="25" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="S206" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T206" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U206" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="V206" s="25" t="s">
         <v>32</v>
@@ -13254,16 +13266,16 @@
         <v>29</v>
       </c>
       <c r="R207" s="25" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="S207" s="25" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="T207" s="25" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="U207" s="25" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="V207" s="25" t="s">
         <v>32</v>
@@ -13274,10 +13286,10 @@
     </row>
     <row r="208" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B208" s="49" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C208" s="51" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D208" s="51">
         <v>6</v>
@@ -13301,7 +13313,7 @@
       <c r="K208" s="40"/>
       <c r="L208" s="40"/>
       <c r="M208" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N208" s="18" t="s">
         <v>33</v>
@@ -13316,16 +13328,16 @@
         <v>29</v>
       </c>
       <c r="R208" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="S208" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="T208" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U208" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V208" s="18" t="s">
         <v>32</v>
@@ -13353,7 +13365,7 @@
       <c r="K209" s="40"/>
       <c r="L209" s="40"/>
       <c r="M209" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N209" s="18" t="s">
         <v>28</v>
@@ -13368,16 +13380,16 @@
         <v>29</v>
       </c>
       <c r="R209" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="S209" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="T209" s="18" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="U209" s="18" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="V209" s="18" t="s">
         <v>32</v>
@@ -13388,10 +13400,10 @@
     </row>
     <row r="210" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B210" s="49" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="C210" s="51" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D210" s="51">
         <v>20</v>
@@ -13415,7 +13427,7 @@
       <c r="K210" s="40"/>
       <c r="L210" s="40"/>
       <c r="M210" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N210" s="18" t="s">
         <v>53</v>
@@ -13430,16 +13442,16 @@
         <v>29</v>
       </c>
       <c r="R210" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="S210" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="T210" s="18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U210" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V210" s="18" t="s">
         <v>32</v>
@@ -13467,7 +13479,7 @@
       <c r="K211" s="40"/>
       <c r="L211" s="40"/>
       <c r="M211" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N211" s="18" t="s">
         <v>40</v>
@@ -13482,16 +13494,16 @@
         <v>29</v>
       </c>
       <c r="R211" s="18" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="S211" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="T211" s="18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U211" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V211" s="18" t="s">
         <v>32</v>
@@ -13502,10 +13514,10 @@
     </row>
     <row r="212" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B212" s="49" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="C212" s="51" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D212" s="51">
         <v>1</v>
@@ -13529,7 +13541,7 @@
       <c r="K212" s="40"/>
       <c r="L212" s="40"/>
       <c r="M212" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N212" s="18" t="s">
         <v>33</v>
@@ -13544,16 +13556,16 @@
         <v>29</v>
       </c>
       <c r="R212" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="S212" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="T212" s="18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U212" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V212" s="18" t="s">
         <v>32</v>
@@ -13581,7 +13593,7 @@
       <c r="K213" s="40"/>
       <c r="L213" s="40"/>
       <c r="M213" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N213" s="18" t="s">
         <v>28</v>
@@ -13596,16 +13608,16 @@
         <v>29</v>
       </c>
       <c r="R213" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="S213" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="T213" s="18" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="U213" s="18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="V213" s="18" t="s">
         <v>32</v>
@@ -13616,10 +13628,10 @@
     </row>
     <row r="214" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B214" s="49" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C214" s="51" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D214" s="51">
         <v>11</v>
@@ -13643,7 +13655,7 @@
       <c r="K214" s="40"/>
       <c r="L214" s="40"/>
       <c r="M214" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N214" s="18" t="s">
         <v>53</v>
@@ -13658,16 +13670,16 @@
         <v>29</v>
       </c>
       <c r="R214" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="S214" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="T214" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U214" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V214" s="18" t="s">
         <v>32</v>
@@ -13695,7 +13707,7 @@
       <c r="K215" s="40"/>
       <c r="L215" s="40"/>
       <c r="M215" s="18" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="N215" s="18" t="s">
         <v>40</v>
@@ -13710,16 +13722,16 @@
         <v>29</v>
       </c>
       <c r="R215" s="18" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="S215" s="18" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="T215" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="U215" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="V215" s="18" t="s">
         <v>32</v>
